--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7b-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7b-Fzd5.xlsx
@@ -549,10 +549,10 @@
         <v>0.063261</v>
       </c>
       <c r="I2">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J2">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N2">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q2">
-        <v>0.049414593987</v>
+        <v>0.05937549532199999</v>
       </c>
       <c r="R2">
-        <v>0.444731345883</v>
+        <v>0.5343794578979999</v>
       </c>
       <c r="S2">
-        <v>0.008369622451039558</v>
+        <v>0.001792750457913517</v>
       </c>
       <c r="T2">
-        <v>0.008369622451039558</v>
+        <v>0.001792750457913517</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.063261</v>
       </c>
       <c r="I3">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J3">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>14.527783</v>
       </c>
       <c r="O3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q3">
         <v>0.102115786707</v>
@@ -641,10 +641,10 @@
         <v>0.9190420803629999</v>
       </c>
       <c r="S3">
-        <v>0.01729591426478827</v>
+        <v>0.003083226883184287</v>
       </c>
       <c r="T3">
-        <v>0.01729591426478827</v>
+        <v>0.003083226883184287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>0.063261</v>
       </c>
       <c r="I4">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J4">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N4">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q4">
-        <v>0.088501351752</v>
+        <v>0.116775398817</v>
       </c>
       <c r="R4">
-        <v>0.796512165768</v>
+        <v>1.050978589353</v>
       </c>
       <c r="S4">
-        <v>0.01498996229263278</v>
+        <v>0.003525851002452885</v>
       </c>
       <c r="T4">
-        <v>0.01498996229263278</v>
+        <v>0.003525851002452886</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.063261</v>
       </c>
       <c r="I5">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J5">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N5">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O5">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P5">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q5">
-        <v>0.038547274986</v>
+        <v>0.025063916823</v>
       </c>
       <c r="R5">
-        <v>0.3469254748739999</v>
+        <v>0.225575251407</v>
       </c>
       <c r="S5">
-        <v>0.006528964666472777</v>
+        <v>0.0007567658697895645</v>
       </c>
       <c r="T5">
-        <v>0.006528964666472777</v>
+        <v>0.0007567658697895647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.063261</v>
       </c>
       <c r="I6">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J6">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N6">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q6">
-        <v>0.316550529999</v>
+        <v>0.397513138671</v>
       </c>
       <c r="R6">
-        <v>2.848954769991</v>
+        <v>3.577618248039</v>
       </c>
       <c r="S6">
-        <v>0.05361590997722471</v>
+        <v>0.01200228911799956</v>
       </c>
       <c r="T6">
-        <v>0.05361590997722471</v>
+        <v>0.01200228911799957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.063261</v>
       </c>
       <c r="I7">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J7">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N7">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q7">
-        <v>0.106619759037</v>
+        <v>0.07022664059399999</v>
       </c>
       <c r="R7">
-        <v>0.9595778313329999</v>
+        <v>0.6320397653459999</v>
       </c>
       <c r="S7">
-        <v>0.01805877691103295</v>
+        <v>0.002120383862060567</v>
       </c>
       <c r="T7">
-        <v>0.01805877691103295</v>
+        <v>0.002120383862060567</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H8">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I8">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J8">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N8">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O8">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P8">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q8">
-        <v>0.3663261693691111</v>
+        <v>2.490979467264889</v>
       </c>
       <c r="R8">
-        <v>3.296935524322</v>
+        <v>22.418815205384</v>
       </c>
       <c r="S8">
-        <v>0.06204668467703366</v>
+        <v>0.07521123918839377</v>
       </c>
       <c r="T8">
-        <v>0.06204668467703366</v>
+        <v>0.07521123918839379</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H9">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I9">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J9">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>14.527783</v>
       </c>
       <c r="O9">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P9">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q9">
-        <v>0.7570169449602222</v>
+        <v>4.284062416511556</v>
       </c>
       <c r="R9">
-        <v>6.813152504642</v>
+        <v>38.556561748604</v>
       </c>
       <c r="S9">
-        <v>0.1282201371526662</v>
+        <v>0.1293505817051343</v>
       </c>
       <c r="T9">
-        <v>0.1282201371526662</v>
+        <v>0.1293505817051343</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H10">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I10">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J10">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N10">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O10">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P10">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q10">
-        <v>0.6560887898791111</v>
+        <v>4.899076953502666</v>
       </c>
       <c r="R10">
-        <v>5.904799108912</v>
+        <v>44.091692581524</v>
       </c>
       <c r="S10">
-        <v>0.1111253786096515</v>
+        <v>0.1479199862521605</v>
       </c>
       <c r="T10">
-        <v>0.1111253786096515</v>
+        <v>0.1479199862521606</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H11">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I11">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J11">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N11">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O11">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P11">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q11">
-        <v>0.2857632623462222</v>
+        <v>1.051506212061778</v>
       </c>
       <c r="R11">
-        <v>2.571869361116</v>
+        <v>9.463555908556001</v>
       </c>
       <c r="S11">
-        <v>0.04840130057214405</v>
+        <v>0.03174858976669776</v>
       </c>
       <c r="T11">
-        <v>0.04840130057214404</v>
+        <v>0.03174858976669777</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H12">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I12">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J12">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N12">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O12">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P12">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q12">
-        <v>2.346690192310444</v>
+        <v>16.67686410071245</v>
       </c>
       <c r="R12">
-        <v>21.120211730794</v>
+        <v>150.091776906412</v>
       </c>
       <c r="S12">
-        <v>0.3974718668003823</v>
+        <v>0.5035318962978996</v>
       </c>
       <c r="T12">
-        <v>0.3974718668003823</v>
+        <v>0.5035318962978997</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H13">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I13">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J13">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N13">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O13">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P13">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q13">
-        <v>0.7904063305135556</v>
+        <v>2.946217439129778</v>
       </c>
       <c r="R13">
-        <v>7.113656974622</v>
+        <v>26.515956952168</v>
       </c>
       <c r="S13">
-        <v>0.1338754816249311</v>
+        <v>0.08895643959631368</v>
       </c>
       <c r="T13">
-        <v>0.1338754816249311</v>
+        <v>0.08895643959631369</v>
       </c>
     </row>
   </sheetData>
